--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N2">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q2">
-        <v>1.423490748838689</v>
+        <v>1.736875852995333</v>
       </c>
       <c r="R2">
-        <v>1.423490748838689</v>
+        <v>15.631882676958</v>
       </c>
       <c r="S2">
-        <v>0.00115405959853331</v>
+        <v>0.00138555406465657</v>
       </c>
       <c r="T2">
-        <v>0.00115405959853331</v>
+        <v>0.00138555406465657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N3">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q3">
-        <v>13.17104241030869</v>
+        <v>14.40065870644033</v>
       </c>
       <c r="R3">
-        <v>13.17104241030869</v>
+        <v>129.605928357963</v>
       </c>
       <c r="S3">
-        <v>0.01067809392418366</v>
+        <v>0.01148780505528395</v>
       </c>
       <c r="T3">
-        <v>0.01067809392418366</v>
+        <v>0.01148780505528395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q4">
-        <v>20.66807402720449</v>
+        <v>22.68466835514167</v>
       </c>
       <c r="R4">
-        <v>20.66807402720449</v>
+        <v>204.162015196275</v>
       </c>
       <c r="S4">
-        <v>0.01675612520401093</v>
+        <v>0.01809618942577195</v>
       </c>
       <c r="T4">
-        <v>0.01675612520401093</v>
+        <v>0.01809618942577195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N5">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q5">
-        <v>40.81178213631468</v>
+        <v>45.90525023773757</v>
       </c>
       <c r="R5">
-        <v>40.81178213631468</v>
+        <v>413.1472521396381</v>
       </c>
       <c r="S5">
-        <v>0.03308713382653782</v>
+        <v>0.03661989194350618</v>
       </c>
       <c r="T5">
-        <v>0.03308713382653782</v>
+        <v>0.03661989194350618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N6">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q6">
-        <v>377.6165835964931</v>
+        <v>380.6062709475493</v>
       </c>
       <c r="R6">
-        <v>377.6165835964931</v>
+        <v>3425.456438527943</v>
       </c>
       <c r="S6">
-        <v>0.3061432209660768</v>
+        <v>0.3036201838120514</v>
       </c>
       <c r="T6">
-        <v>0.3061432209660768</v>
+        <v>0.3036201838120513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q7">
-        <v>592.5580725154961</v>
+        <v>599.550840439753</v>
       </c>
       <c r="R7">
-        <v>592.5580725154961</v>
+        <v>5395.957563957776</v>
       </c>
       <c r="S7">
-        <v>0.4804016688080349</v>
+        <v>0.4782783424082723</v>
       </c>
       <c r="T7">
-        <v>0.4804016688080349</v>
+        <v>0.4782783424082723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N8">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q8">
-        <v>7.557537743484862</v>
+        <v>8.441218179902</v>
       </c>
       <c r="R8">
-        <v>7.557537743484862</v>
+        <v>75.970963619118</v>
       </c>
       <c r="S8">
-        <v>0.00612708511190672</v>
+        <v>0.006733793978220256</v>
       </c>
       <c r="T8">
-        <v>0.00612708511190672</v>
+        <v>0.006733793978220256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N9">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q9">
-        <v>69.92714931105449</v>
+        <v>69.98721403474698</v>
       </c>
       <c r="R9">
-        <v>69.92714931105449</v>
+        <v>629.884926312723</v>
       </c>
       <c r="S9">
-        <v>0.05669169113064561</v>
+        <v>0.05583074271693128</v>
       </c>
       <c r="T9">
-        <v>0.05669169113064561</v>
+        <v>0.05583074271693128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q10">
-        <v>109.7300770469832</v>
+        <v>110.247508245475</v>
       </c>
       <c r="R10">
-        <v>109.7300770469832</v>
+        <v>992.227574209275</v>
       </c>
       <c r="S10">
-        <v>0.08896092143007032</v>
+        <v>0.08794749659530615</v>
       </c>
       <c r="T10">
-        <v>0.08896092143007032</v>
+        <v>0.08794749659530617</v>
       </c>
     </row>
   </sheetData>
